--- a/pabi_budget_report/xlsx_template/xlsx_report_budget_plan_construction_analysis.xlsx
+++ b/pabi_budget_report/xlsx_template/xlsx_report_budget_plan_construction_analysis.xlsx
@@ -286,8 +286,8 @@
   </sheetPr>
   <dimension ref="A1:AE7"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I20" activeCellId="0" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.85" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -296,7 +296,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.25"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="11.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="14.35"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="11.03"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="11.04"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="11.63"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="16.8"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="16.19"/>

--- a/pabi_budget_report/xlsx_template/xlsx_report_budget_plan_construction_analysis.xlsx
+++ b/pabi_budget_report/xlsx_template/xlsx_report_budget_plan_construction_analysis.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="34">
   <si>
     <t xml:space="preserve">Financial Year</t>
   </si>
@@ -95,9 +95,6 @@
   </si>
   <si>
     <t xml:space="preserve">FY5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Beyond FY5 </t>
   </si>
   <si>
     <t xml:space="preserve">Overall Released</t>
@@ -284,10 +281,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AE7"/>
+  <dimension ref="A1:AD7"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I20" activeCellId="0" sqref="I20"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AB1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="V9" activeCellId="0" sqref="V9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.85" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -309,17 +306,16 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="14.23"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="11.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="17" style="0" width="10.89"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="0" width="12.39"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="0" width="15.82"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="0" width="18.64"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="0" width="17.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="0" width="17.4"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="0" width="17.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="28" style="0" width="13.87"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="29" style="0" width="17.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="30" min="30" style="0" width="14.84"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="31" min="31" style="0" width="19.25"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="32" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="0" width="15.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="0" width="18.64"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="0" width="17.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="0" width="17.4"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="0" width="17.17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="0" width="13.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="28" style="0" width="17.17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="29" style="0" width="14.84"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="30" min="30" style="0" width="19.25"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="31" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -382,7 +378,6 @@
       <c r="AA6" s="4"/>
       <c r="AB6" s="4"/>
       <c r="AC6" s="4"/>
-      <c r="AD6" s="4"/>
     </row>
     <row r="7" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="6" t="s">
@@ -474,9 +469,6 @@
       </c>
       <c r="AD7" s="6" t="s">
         <v>33</v>
-      </c>
-      <c r="AE7" s="6" t="s">
-        <v>34</v>
       </c>
     </row>
   </sheetData>
